--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="URL" sheetId="1" r:id="rId1"/>
+    <sheet name="DataXYZ" sheetId="1" r:id="rId1"/>
+    <sheet name="Attentity" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>URL</t>
   </si>
@@ -34,13 +35,28 @@
   </si>
   <si>
     <t>https://data.xyz/pricing/</t>
+  </si>
+  <si>
+    <t>https://data.xyz/content-hub/</t>
+  </si>
+  <si>
+    <t>https://attentity.com/</t>
+  </si>
+  <si>
+    <t>https://attentity.com/graph/</t>
+  </si>
+  <si>
+    <t>https://attentity.com/data/</t>
+  </si>
+  <si>
+    <t>https://attentity.com/data-licencing/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +68,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,16 +98,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -362,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,12 +421,56 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>